--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_4.xlsx
@@ -478,156 +478,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_0</t>
+          <t>model_6_4_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3083830318006148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01372893691086063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2805454215328287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1885902720498855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.765416145324707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.829413115978241</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03715565428137779</v>
+        <v>1.004480004310608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9117977023124695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_22</t>
+          <t>model_6_4_20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.309036262977647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01338247709329088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2841236939266608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1908162146176458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7646932601928711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8291295170783997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9994841814041138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9092963933944702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_21</t>
+          <t>model_6_4_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3090754762485025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01299818608712489</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2839530333078509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.190864720065346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7646498084068298</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8288151621818542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9997223615646362</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.909241795539856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_20</t>
+          <t>model_6_4_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3091756268427329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01321716159524144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2847251862190177</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.19123155680993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7645389437675476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8289943337440491</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9986443519592285</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9088295698165894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_19</t>
+          <t>model_6_4_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3092442638602823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01321844769953473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2851110089223748</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1914568583348523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7644630074501038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8289953470230103</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9981056451797485</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.908576488494873</v>
       </c>
     </row>
     <row r="7">
@@ -637,307 +637,307 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3095232211170844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01328021366845755</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2868826242920632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1924686001133882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.764154314994812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8290459513664246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9956321716308594</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9074395298957825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_17</t>
+          <t>model_6_4_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3097514130877069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01383070360063687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2884219994874719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1931564449383407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7639017701148987</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8294963240623474</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9934829473495483</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9066665768623352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_16</t>
+          <t>model_6_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3107915320417168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01276072809831441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2936606414245554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1966317062240425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7627506852149963</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8286207914352417</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9861689805984497</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9027613997459412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_15</t>
+          <t>model_6_4_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3109292126275487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01291616180967892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2952249108119063</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1974865815986456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7625983357429504</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8287479877471924</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9839849472045898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9018006324768066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_14</t>
+          <t>model_6_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3109735114714482</v>
       </c>
       <c r="C11" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.0124882961751045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2945697432844298</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1972683346548059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7625492811203003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8283979892730713</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9848996996879578</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9020459651947021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_13</t>
+          <t>model_6_4_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3110550780031275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01207419810122778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2948625446699953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1975993880081425</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7624589800834656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8280590772628784</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9844908714294434</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9016739130020142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_23</t>
+          <t>model_6_4_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3110550780031275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01207419810122778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2948625446699953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1975993880081425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7624589800834656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8280590772628784</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9844908714294434</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9016739130020142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_12</t>
+          <t>model_6_4_6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3112762669840543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01284642248423262</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2972002844038775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1986684103882895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7622142434120178</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8286910057067871</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9812270402908325</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9004727005958557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_10</t>
+          <t>model_6_4_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.31132893390105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01270738536156046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2974703697017154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1988795746089219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7621559500694275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8285772204399109</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9808499813079834</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9002353549003601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_9</t>
+          <t>model_6_4_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3113655886044329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01209269523734502</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2965313367943251</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1985679443675799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7621154189109802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8280742764472961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9821609854698181</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9005855917930603</v>
       </c>
     </row>
     <row r="17">
@@ -947,307 +947,307 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.311393333626768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01285226751600765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2976525559204881</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1989307187830328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7620846629142761</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8286957740783691</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.980595588684082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9001778364181519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_7</t>
+          <t>model_6_4_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3115295285964323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01255186109327644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2976640389539476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1990531777219741</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7619339823722839</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8284499645233154</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9805794954299927</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.9000402092933655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_6</t>
+          <t>model_6_4_13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3115299047625569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01197225477170627</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.297410522698823</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.1991282299230871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7619335055351257</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8279757499694824</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9809334874153137</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8999558687210083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_5</t>
+          <t>model_6_4_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3118087084660879</v>
       </c>
       <c r="C20" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01223937936065966</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2993575411211055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2001636255902463</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7616249322891235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8281943798065186</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9782150983810425</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8987924456596375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_4</t>
+          <t>model_6_4_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3118464018691912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.01218878596233242</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.2995263965616289</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2002816307850264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7615832090377808</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8281528949737549</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.977979302406311</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8986598253250122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_3</t>
+          <t>model_6_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.316660198275138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.007101853319291251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.3259013002828063</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2176635751390651</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7562557458877563</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8239909410476685</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9411555528640747</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8791274428367615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_2</t>
+          <t>model_6_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3178083047788856</v>
       </c>
       <c r="C23" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.006627919500074242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.3325494547054396</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2217334403173644</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7549852132797241</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.823603093624115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.9318735599517822</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8745540380477905</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_1</t>
+          <t>model_6_4_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3224789378909186</v>
       </c>
       <c r="C24" t="n">
-        <v>0.899451874814192</v>
+        <v>0.016080350249562</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.4079203220951629</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2745547344228872</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7498162388801575</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8050236701965332</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.8266431093215942</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8151975870132446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_11</t>
+          <t>model_6_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3226135883629595</v>
       </c>
       <c r="C25" t="n">
-        <v>0.899451874814192</v>
+        <v>0.0129364031071606</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.3967518755452191</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2668131219927011</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7496671676635742</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.80759596824646</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.8422361612319946</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8238970041275024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_4_24</t>
+          <t>model_6_4_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3260055067384914</v>
       </c>
       <c r="C26" t="n">
-        <v>0.899451874814192</v>
+        <v>-0.006148803937411795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6592787227260812</v>
+        <v>0.3923121037541212</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8917254765058493</v>
+        <v>0.2568605495983908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7459133267402649</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1747007369995117</v>
+        <v>0.8232110738754272</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03715565428137779</v>
+        <v>0.8484348654747009</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1099736392498016</v>
+        <v>0.8350809812545776</v>
       </c>
     </row>
   </sheetData>
